--- a/SHL_assesment_list.xlsx
+++ b/SHL_assesment_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="476">
   <si>
     <t>Assesment Name</t>
   </si>
@@ -74,9 +74,6 @@
     <t>https://www.shl.com/solutions/products/product-catalog/view/administrative-professional-short-form/</t>
   </si>
   <si>
-    <t>Entry</t>
-  </si>
-  <si>
     <t>The Administrative Professional solution is for entry to mid-level positions that involve routine clerical and administrative functions in addition to office management functions and customer service. Sample tasks for this job include, but are not limited to: arranging conference calls; drafting correspondence; scheduling meetings; greeting visitors; coordinating office activities. Potential job titles that use this solution are: Administrative Assistant, Secretary, Office Manager, Administrative Aide, and Administrative Associate.</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>Contact Center Team Lead/Coach - Short Form</t>
   </si>
   <si>
-    <t>Front Line Manager, Professional Individual Contributor, Supervisor,</t>
-  </si>
-  <si>
     <t>https://www.shl.com/solutions/products/product-catalog/view/contact-center-team-leadcoach-short-form/</t>
   </si>
   <si>
@@ -1265,9 +1259,6 @@
     <t>Store Manager Solution</t>
   </si>
   <si>
-    <t>Manager, Supervisor</t>
-  </si>
-  <si>
     <t>https://www.shl.com/solutions/products/product-catalog/view/store-manager-solution/</t>
   </si>
   <si>
@@ -1301,9 +1292,6 @@
     <t>https://www.shl.com/solutions/products/product-catalog/view/supervisor-7-1-%28americas%29/</t>
   </si>
   <si>
-    <t>Front Line Manager, Supervisor</t>
-  </si>
-  <si>
     <t>Our Supervisor 7.1 solution is designed for candidates applying to entry-level leadership positions who tend to supervise hourly employees. Sample tasks for these jobs include, but are not limited to: planning and preparing work schedules, assigning employees to specific duties; coaching employees on attendance, conduct, schedule adherence, and work tasks, developing employees' skills; training subordinates; prioritizing multiple tasks and priorities; and making day-to-day decisions with minimal guidance from others.</t>
   </si>
   <si>
@@ -1320,13 +1308,216 @@
   </si>
   <si>
     <t>The Support Associate solution is designed for entry-level positions that involve little to no interaction with customers. The solution covers a wide variety of support positions in the hospitality industry, and sample tasks may include: food preparation, dishwashing, and/or cleaning. Potential job titles that use this solutin are: Janitor, Food Prep, Laundry Associate and Dishwasher. Multiple configurations of this solution are available.</t>
+  </si>
+  <si>
+    <t>Front Line Manager, Professional Individual Contributor, Supervisor</t>
+  </si>
+  <si>
+    <t>Support Supervisor Solution</t>
+  </si>
+  <si>
+    <t>https://www.shl.com/solutions/products/product-catalog/view/support-supervisor-solution/</t>
+  </si>
+  <si>
+    <t>The Support Supervisor solution is designed for entry-level leadership positions in the hospitality industry that oversee hourly employees in non-customer facing support positions (e.g. Janitors, Laundry Workers, Grounds Crew). Individuals in these roles may perform many of the duties of the employees they supervise. Sample tasks may include: assigning work tasks, taking corrective action when an employee is performing poorly, and monitoring employees to assess the satisfactory completion of tasks. Potential job titles that use this solution are: Head Custodian, Maintenance Supervisor, Buildings and Grounds Supervisor, Facilities Manager, Housekeeping Supervisor, Building and Grounds Director and Housekeepig Director. Multiple configurations of this solution are available</t>
+  </si>
+  <si>
+    <t>Technical Sales Associate Solution</t>
+  </si>
+  <si>
+    <t>https://www.shl.com/solutions/products/product-catalog/view/technical-sales-associate-solution/</t>
+  </si>
+  <si>
+    <t>The Technical Sales Associate solution is for entry-level retail positions in which employees proactively sell a specific line of products that requires substantial knowledge about the products and have their pay and/or performance based on sales revenue. Sample tasks for these jobs include, but are not limited to: obtaining detailed product information, promoting products to customers, persuading customers to buy products, and completing a transaction with a customer. Potential job titles that use this solution are: Sales Representative, Retail Sales Associate, and Sales Clerk. Multiple configurations of this solution are available</t>
+  </si>
+  <si>
+    <t>Entry -level</t>
+  </si>
+  <si>
+    <t>Technician/Technologist Solution</t>
+  </si>
+  <si>
+    <t>Mid-Professional</t>
+  </si>
+  <si>
+    <t>https://www.shl.com/solutions/products/product-catalog/view/techniciantechnologist-solution/</t>
+  </si>
+  <si>
+    <t>The Technician/Technologist solution is for positions in a healthcare environment that perform medical tests to aide in the treatment of patients. Sample tasks for this job include, but are not limited to: collecting samples of bodily fluids, completing x-rays on patients, conducting analysis using medical machines, and entering results of medical tests into a computer. Potential job titles that use this solutionare: Radiologic Technician, Medical Technologist/Technician, and Laboratory Technologist. Multiple configurations of this solution are available.</t>
+  </si>
+  <si>
+    <t>Technology Professional 8.0 Job Focused Assessment</t>
+  </si>
+  <si>
+    <t>https://www.shl.com/solutions/products/product-catalog/view/technology-professional-8-0-job-focused-assessment/</t>
+  </si>
+  <si>
+    <t>Entry-Level, Graduate, Mid-Professional, Professional Individual Contributor</t>
+  </si>
+  <si>
+    <r>
+      <t>The Technology Job Focused Assessment assesses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF353535"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>key behavioral attributes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF353535"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>required for success in fast-paced, rapidly evolving </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF353535"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>technology environments </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF353535"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, providing an indication of the candidate’s longer term </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF353535"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>potential</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF353535"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Telenurse Solution</t>
+  </si>
+  <si>
+    <t>https://www.shl.com/solutions/products/product-catalog/view/telenurse-solution/</t>
+  </si>
+  <si>
+    <t>The Telenurse solution is for positions in a healthcare environment that interact with patients over the telephone. Sample tasks for this job include, but are not limited to: accurately understanding patient's symptoms via the telephone, systematically working through patient symptoms to arrive at the correct diagnosis, and recalling facts from the call for documentation. Potential job titles that use this solution are: Telenurse, Telephone Nurse, or On Call Nurse. Multiple configurations of this solution are available.</t>
+  </si>
+  <si>
+    <t>Teller 7.0</t>
+  </si>
+  <si>
+    <t>BKPS</t>
+  </si>
+  <si>
+    <t>https://www.shl.com/solutions/products/product-catalog/view/teller-7-0/</t>
+  </si>
+  <si>
+    <t>Entry-Level</t>
+  </si>
+  <si>
+    <t>Teller or cashier positions are integral to financial institutions as they conduct numerous banking transactions each day, as well as being the face of the bank to its customers. The Teller Solution contains scales that measure a person’s ability to handle money, prevent transactional errors, promote quality customer service, and generate sales or referrals appropriately</t>
+  </si>
+  <si>
+    <t>Teller with Sales - Short Form</t>
+  </si>
+  <si>
+    <t>https://www.shl.com/solutions/products/product-catalog/view/teller-with-sales-short-form/</t>
+  </si>
+  <si>
+    <t>The Teller solution with Sales is for entry-level financial institution teller positions. Sample tasks for this job would include, but are not limited to: balancing currency, coin and checks, cashing checks and paying out money, entering customer transactions into computers, and suggestive selling after a customer service interaction</t>
+  </si>
+  <si>
+    <t>Transcriptionist Solution</t>
+  </si>
+  <si>
+    <t>https://www.shl.com/solutions/products/product-catalog/view/transcriptionist-solution/</t>
+  </si>
+  <si>
+    <t>The Transcriptionist solution is for entry-level clerical roles in a healthcare environment that require employees to translate medical information. Sample tasks for these jobs include, but are not limited to: transcribing dictated reports, deciphering medical jargon, and proofing medical reports. Potential job titles that use this solution are: Medical Transcriptionist, Medical Transcriber, and Documentation Specialist. Multiple configurations of this solution are available</t>
+  </si>
+  <si>
+    <t>Workplace Safety - Individual 7.0 Solution</t>
+  </si>
+  <si>
+    <t>https://www.shl.com/solutions/products/product-catalog/view/workplace-safety-individual-7-0-solution/</t>
+  </si>
+  <si>
+    <t>Our Workplace Safety - Individual 7.0 solution is designed for entry-level positions and measures the behaviors and experiences that underlie successful and safe performance with more individually-oriented roles or work environments. The solution assesses behaviors and competencies foundational to safety across a wide range of jobs, including: following policies and procedures; wearing required protective equipment; safely operating vehicles and/or machinery; taking action in unsafe situations; and producing high quality work. Industries and environments with entry-level positions that use this solution are: Warehouse, Healthcare, Delivery and Logistics, Food Handling and Preparation, Assembly and Installation, Transportation, Manufacturing and Processing, Construction, Drivers, Oil and Gas, and Mining.</t>
+  </si>
+  <si>
+    <t>Workplace Safety - Individual 7.1 (Americas)</t>
+  </si>
+  <si>
+    <t>https://www.shl.com/solutions/products/product-catalog/view/workplace-safety-individual-7-1-solution/</t>
+  </si>
+  <si>
+    <t>Our Workplace Safety - Individual 7.1 solution is designed for entry-level positions and measures the behaviors and experiences that underlie successful and safe performance with more individually-oriented roles or work environments. The solution assesses behaviors and competencies foundational to safety across a wide range of jobs, including: following policies and procedures; wearing required protective equipment; safely operating vehicles and/or machinery; taking action in unsafe situations; and producing high quality work. Industries and environments with entry-level positions that use this solution are: Warehouse, Healthcare, Delivery and Logistics, Food Handling and Preparation, Assembly and Installation, Transportation, Manufacturing and Processing, Construction, Drivers, Oil and Gas, and Mining</t>
+  </si>
+  <si>
+    <t>Workplace Safety - Team 7.0 Solution</t>
+  </si>
+  <si>
+    <t>The Workplace Safety – Team 7.0 solution is designed for entry-level positions to measure the competencies and experiences that underlie successful and safe performance in a team based work environment. The solution predicts the following types of behaviors and competencies foundational to safety across a wide range of jobs: wearing required protective equipment; working hard and responsibly; safely moving equipment, freight, or other materials; working and communicating effectively with others; taking action when unsafe situations occur; and following policies and procedures Industries and environments with entry-level positions that use this solution are: Warehouse, Healthcare, Delivery and Logistics, Food Handling and Preparation, Assembly and Installation, Transportation, Manufacturing and Processing, Construction, Drivers, Oil and Gas, and Mining</t>
+  </si>
+  <si>
+    <t>https://www.shl.com/solutions/products/product-catalog/view/workplace-safety-team-7-0-solution/</t>
+  </si>
+  <si>
+    <t>Workplace Safety - Team 7.1 (Americas)</t>
+  </si>
+  <si>
+    <t>https://www.shl.com/solutions/products/product-catalog/view/workplace-safety-team-7-1-%28americas%29/</t>
+  </si>
+  <si>
+    <t>Entry-Level, General Population, Professional Individual Contributor</t>
+  </si>
+  <si>
+    <t>The Workplace Safety – Team 7.1 solution is designed for entry-level positions to measure the competencies and experiences that underlie successful and safe performance in a team based work environment. The solution predicts the following types of behaviors and competencies foundational to safety across a wide range of jobs: wearing required protective equipment; working hard and responsibly; safely moving equipment, freight, or other materials; working and communicating effectively with others; taking action when unsafe situations occur; and following policies and procedures Industries and environments with entry-level positions that use this solution are: Warehouse, Healthcare, Delivery and Logistics, Food Handling and Preparation, Assembly and Installation, Transportation, Manufacturing and Processing, Construction, Drivers, Oil and Gas, and Mining.</t>
+  </si>
+  <si>
+    <t>Workplace Safety - Team 7.1 (International)</t>
+  </si>
+  <si>
+    <t>https://www.shl.com/solutions/products/product-catalog/view/workplace-safety-team-7-1-solution/</t>
+  </si>
+  <si>
+    <t>Workplace Safety Solution</t>
+  </si>
+  <si>
+    <t>https://www.shl.com/solutions/products/product-catalog/view/workplace-safety-solution/</t>
+  </si>
+  <si>
+    <t>The Workplace Safety Solution is designed for entry-level positions to measure the competencies and experiences that underlie successful and safe performance in the workplace. This solution measures one’s general tendency to behave safely in the workplace using a variety of assessment types including personality traits, safety-related situational judgment, and biodata. Potential job titles that use this solution are: Material Handler, Shipping Operator, Driver, Forklift Operator, Crewman, Mechanic, and Receiver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1358,6 +1549,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF353535"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF353535"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1379,7 +1583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1388,6 +1592,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1668,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W131"/>
+  <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="B137" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1699,7 +1904,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -1754,21 +1959,21 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1780,125 +1985,125 @@
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1910,21 +2115,21 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1936,21 +2141,21 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -1962,47 +2167,47 @@
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -2014,21 +2219,21 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -2040,73 +2245,73 @@
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -2118,73 +2323,73 @@
         <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -2196,47 +2401,47 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
+        <v>428</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -2248,21 +2453,21 @@
         <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -2274,21 +2479,21 @@
         <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -2300,21 +2505,21 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -2326,21 +2531,21 @@
         <v>69</v>
       </c>
       <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -2352,229 +2557,229 @@
         <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -2586,21 +2791,21 @@
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -2612,27 +2817,27 @@
         <v>74</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>35</v>
@@ -2641,44 +2846,44 @@
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -2690,21 +2895,21 @@
         <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -2716,21 +2921,21 @@
         <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -2742,195 +2947,195 @@
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <v>30</v>
       </c>
       <c r="F46" t="s">
+        <v>166</v>
+      </c>
+      <c r="G46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E48">
         <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -2950,28 +3155,28 @@
     </row>
     <row r="49" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G49" t="s">
+        <v>175</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -2991,10 +3196,10 @@
     </row>
     <row r="50" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -3006,47 +3211,47 @@
         <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -3058,21 +3263,21 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -3084,21 +3289,21 @@
         <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -3110,21 +3315,21 @@
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -3136,21 +3341,21 @@
         <v>41</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -3162,21 +3367,21 @@
         <v>57</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -3188,99 +3393,99 @@
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E58">
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59">
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E60">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -3292,125 +3497,125 @@
         <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E62">
         <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G62" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E63">
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E64">
         <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G64" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E65">
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G65" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -3422,21 +3627,21 @@
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -3451,18 +3656,18 @@
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -3474,21 +3679,21 @@
         <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -3503,18 +3708,18 @@
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -3526,21 +3731,21 @@
         <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -3552,21 +3757,21 @@
         <v>51</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -3578,21 +3783,21 @@
         <v>57</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -3604,21 +3809,21 @@
         <v>53</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -3630,21 +3835,21 @@
         <v>63</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -3656,47 +3861,47 @@
         <v>63</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E76">
         <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G76" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -3708,21 +3913,21 @@
         <v>63</v>
       </c>
       <c r="F77" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G77" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -3734,203 +3939,203 @@
         <v>63</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E79">
         <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="C80" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E80">
         <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G80" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E81">
         <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G81" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E82">
         <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E83">
         <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G83" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E84">
         <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G84" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E85">
         <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G85" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -3942,21 +4147,21 @@
         <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -3968,21 +4173,21 @@
         <v>59</v>
       </c>
       <c r="F87" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G87" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -3994,99 +4199,99 @@
         <v>66</v>
       </c>
       <c r="F88" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E89">
         <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E90">
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G90" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E91">
         <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -4098,21 +4303,21 @@
         <v>24</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -4124,21 +4329,21 @@
         <v>51</v>
       </c>
       <c r="F93" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G93" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -4150,21 +4355,21 @@
         <v>56</v>
       </c>
       <c r="F94" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G94" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -4176,99 +4381,99 @@
         <v>56</v>
       </c>
       <c r="F95" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G95" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E96">
         <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G96" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="C97" t="s">
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E97">
         <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G97" t="s">
+        <v>319</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E98">
         <v>16</v>
       </c>
       <c r="F98" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G98" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -4280,21 +4485,21 @@
         <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
@@ -4306,47 +4511,47 @@
         <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="C101" t="s">
         <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E101">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G101" t="s">
+        <v>332</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -4358,21 +4563,21 @@
         <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G102" t="s">
+        <v>336</v>
+      </c>
+      <c r="H102" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -4384,21 +4589,21 @@
         <v>48</v>
       </c>
       <c r="F103" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -4410,21 +4615,21 @@
         <v>53</v>
       </c>
       <c r="F104" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -4436,21 +4641,21 @@
         <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
@@ -4462,21 +4667,21 @@
         <v>43</v>
       </c>
       <c r="F106" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -4488,21 +4693,21 @@
         <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
@@ -4514,21 +4719,21 @@
         <v>59</v>
       </c>
       <c r="F108" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
@@ -4540,21 +4745,21 @@
         <v>61</v>
       </c>
       <c r="F109" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G109" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
@@ -4566,73 +4771,73 @@
         <v>63</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E111">
         <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G111" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E112">
         <v>21</v>
       </c>
       <c r="F112" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G112" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
@@ -4647,18 +4852,18 @@
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -4670,21 +4875,21 @@
         <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -4696,21 +4901,21 @@
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -4722,47 +4927,47 @@
         <v>43</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E117">
         <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -4774,21 +4979,21 @@
         <v>42</v>
       </c>
       <c r="F118" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
@@ -4800,21 +5005,21 @@
         <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
@@ -4826,21 +5031,21 @@
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -4852,125 +5057,125 @@
         <v>48</v>
       </c>
       <c r="F121" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122">
+        <v>25</v>
+      </c>
+      <c r="F122" t="s">
+        <v>435</v>
+      </c>
+      <c r="G122" t="s">
+        <v>35</v>
+      </c>
+      <c r="H122" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C122" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" t="s">
-        <v>26</v>
-      </c>
-      <c r="E122">
-        <v>25</v>
-      </c>
-      <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s">
-        <v>36</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E123">
         <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G123" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C124" t="s">
         <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E124">
         <v>34</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G124" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E125">
         <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G125" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
@@ -4982,21 +5187,21 @@
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>413</v>
+        <v>288</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -5008,99 +5213,99 @@
         <v>57</v>
       </c>
       <c r="F127" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G127" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
       </c>
       <c r="D128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E128">
         <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G128" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E129">
         <v>29</v>
       </c>
       <c r="F129" t="s">
-        <v>425</v>
+        <v>288</v>
       </c>
       <c r="G129" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
       </c>
       <c r="D130" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E130">
         <v>29</v>
       </c>
       <c r="F130" t="s">
-        <v>425</v>
+        <v>288</v>
       </c>
       <c r="G130" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
@@ -5112,13 +5317,377 @@
         <v>38</v>
       </c>
       <c r="F131" t="s">
+        <v>435</v>
+      </c>
+      <c r="G131" t="s">
+        <v>35</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>39</v>
+      </c>
+      <c r="F132" t="s">
+        <v>288</v>
+      </c>
+      <c r="G132" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133">
+        <v>41</v>
+      </c>
+      <c r="F133" t="s">
+        <v>435</v>
+      </c>
+      <c r="G133" t="s">
+        <v>35</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>52</v>
+      </c>
+      <c r="F134" t="s">
+        <v>437</v>
+      </c>
+      <c r="G134" t="s">
+        <v>35</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135">
         <v>16</v>
       </c>
-      <c r="G131" t="s">
-        <v>36</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>431</v>
+      <c r="F135" t="s">
+        <v>442</v>
+      </c>
+      <c r="G135" t="s">
+        <v>108</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136">
+        <v>68</v>
+      </c>
+      <c r="F136" t="s">
+        <v>437</v>
+      </c>
+      <c r="G136" t="s">
+        <v>35</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>35</v>
+      </c>
+      <c r="F137" t="s">
+        <v>450</v>
+      </c>
+      <c r="G137" t="s">
+        <v>448</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138">
+        <v>35</v>
+      </c>
+      <c r="F138" t="s">
+        <v>450</v>
+      </c>
+      <c r="G138" t="s">
+        <v>247</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>33</v>
+      </c>
+      <c r="F139" t="s">
+        <v>450</v>
+      </c>
+      <c r="G139" t="s">
+        <v>30</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140">
+        <v>16</v>
+      </c>
+      <c r="F140" t="s">
+        <v>450</v>
+      </c>
+      <c r="G140" t="s">
+        <v>154</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>25</v>
+      </c>
+      <c r="E141">
+        <v>16</v>
+      </c>
+      <c r="F141" t="s">
+        <v>450</v>
+      </c>
+      <c r="G141" t="s">
+        <v>154</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142">
+        <v>20</v>
+      </c>
+      <c r="F142" t="s">
+        <v>95</v>
+      </c>
+      <c r="G142" t="s">
+        <v>154</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143">
+        <v>20</v>
+      </c>
+      <c r="F143" t="s">
+        <v>469</v>
+      </c>
+      <c r="G143" t="s">
+        <v>118</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144">
+        <v>20</v>
+      </c>
+      <c r="F144" t="s">
+        <v>469</v>
+      </c>
+      <c r="G144" t="s">
+        <v>118</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145">
+        <v>21</v>
+      </c>
+      <c r="F145" t="s">
+        <v>450</v>
+      </c>
+      <c r="G145" t="s">
+        <v>26</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
